--- a/data/outputs/OR_elsevier/30.xlsx
+++ b/data/outputs/OR_elsevier/30.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS220"/>
+  <dimension ref="A1:BU220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,16 @@
       <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
         </is>
       </c>
     </row>
@@ -917,6 +927,12 @@
           <t>2-s2.0-84947616672</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1124,6 +1140,12 @@
           <t>2-s2.0-84947493748</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1347,6 +1369,12 @@
           <t>2-s2.0-84947613062</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84947485943</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1776,6 +1810,12 @@
         <is>
           <t>2-s2.0-84947555998</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1980,6 +2020,12 @@
           <t>2-s2.0-84947615827</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2191,6 +2237,12 @@
           <t>2-s2.0-84947618610</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2414,6 +2466,12 @@
           <t>2-s2.0-84947614191</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2632,6 +2690,12 @@
         <is>
           <t>2-s2.0-84947553655</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2836,6 +2900,12 @@
           <t>2-s2.0-84947614486</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3050,6 +3120,12 @@
         <is>
           <t>2-s2.0-84947618241</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3258,6 +3334,12 @@
           <t>2-s2.0-84947616491</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3461,6 +3543,12 @@
           <t>2-s2.0-84947618404</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3680,6 +3768,12 @@
           <t>2-s2.0-84947616840</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3895,6 +3989,12 @@
           <t>2-s2.0-84947616454</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4106,6 +4206,12 @@
           <t>2-s2.0-84947618698</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4329,6 +4435,12 @@
           <t>2-s2.0-84947615801</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4548,6 +4660,12 @@
           <t>2-s2.0-84947618951</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4763,6 +4881,12 @@
           <t>2-s2.0-84947613356</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4981,6 +5105,12 @@
         <is>
           <t>2-s2.0-84947615276</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -5189,6 +5319,12 @@
           <t>2-s2.0-84947613029</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5415,6 +5551,12 @@
         <is>
           <t>2-s2.0-84944513451</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -5619,6 +5761,12 @@
           <t>2-s2.0-84944513770</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5826,6 +5974,12 @@
           <t>2-s2.0-84944513939</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6037,6 +6191,12 @@
           <t>2-s2.0-84944514410</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6260,6 +6420,12 @@
           <t>2-s2.0-84944512737</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6475,6 +6641,12 @@
           <t>2-s2.0-84944515532</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6698,6 +6870,12 @@
           <t>2-s2.0-84944516743</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6917,6 +7095,12 @@
           <t>2-s2.0-84944514260</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7141,6 +7325,12 @@
         <is>
           <t>2-s2.0-84944516063</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7349,6 +7539,12 @@
           <t>2-s2.0-84944516191</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7568,6 +7764,12 @@
           <t>2-s2.0-84944511596</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7783,6 +7985,12 @@
           <t>2-s2.0-84944516032</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8006,6 +8214,12 @@
           <t>2-s2.0-84944511793</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8220,6 +8434,12 @@
         <is>
           <t>2-s2.0-84944456823</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -8428,6 +8648,12 @@
           <t>2-s2.0-84944511101</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8651,6 +8877,12 @@
           <t>2-s2.0-84944463993</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8862,6 +9094,12 @@
           <t>2-s2.0-84944447486</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9077,6 +9315,12 @@
           <t>2-s2.0-84941425995</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9300,6 +9544,12 @@
           <t>2-s2.0-84941344271</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9523,6 +9773,12 @@
           <t>2-s2.0-84941416059</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9737,6 +9993,12 @@
         <is>
           <t>2-s2.0-84941420139</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -9941,6 +10203,12 @@
           <t>2-s2.0-84941426069</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10156,6 +10424,12 @@
           <t>2-s2.0-84941414262</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10370,6 +10644,12 @@
         <is>
           <t>2-s2.0-84941419321</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -10576,6 +10856,12 @@
           <t>2-s2.0-84941421314</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10798,6 +11084,12 @@
         <is>
           <t>2-s2.0-84941425900</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -11006,6 +11298,12 @@
           <t>2-s2.0-84941415520</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11213,6 +11511,12 @@
           <t>2-s2.0-84941358919</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11428,6 +11732,12 @@
           <t>2-s2.0-84941419568</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11643,6 +11953,12 @@
           <t>2-s2.0-84941426584</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11862,6 +12178,12 @@
           <t>2-s2.0-84941426433</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12076,6 +12398,12 @@
         <is>
           <t>2-s2.0-84941425842</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -12284,6 +12612,12 @@
           <t>2-s2.0-84941425500</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12491,6 +12825,12 @@
           <t>2-s2.0-84941423037</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12702,6 +13042,12 @@
           <t>2-s2.0-84941351534</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12917,6 +13263,12 @@
           <t>2-s2.0-84941418503</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13136,6 +13488,12 @@
           <t>2-s2.0-84938416723</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13351,6 +13709,12 @@
           <t>2-s2.0-84938419677</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13569,6 +13933,12 @@
         <is>
           <t>2-s2.0-84938328366</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -13779,6 +14149,12 @@
           <t>2-s2.0-84938416767</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13986,6 +14362,12 @@
           <t>2-s2.0-84938423783</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14203,6 +14585,12 @@
           <t>2-s2.0-84938417675</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14422,6 +14810,12 @@
           <t>2-s2.0-84938414277</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14639,6 +15033,12 @@
           <t>2-s2.0-84938421625</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14854,6 +15254,12 @@
           <t>2-s2.0-84938423554</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15069,6 +15475,12 @@
           <t>2-s2.0-84938422905</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15284,6 +15696,12 @@
           <t>2-s2.0-84938416861</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15507,6 +15925,12 @@
           <t>2-s2.0-84938414458</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15729,6 +16153,12 @@
         <is>
           <t>2-s2.0-84938421793</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -15937,6 +16367,12 @@
           <t>2-s2.0-84938421806</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16159,6 +16595,12 @@
         <is>
           <t>2-s2.0-84938424261</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="74">
@@ -16367,6 +16809,12 @@
           <t>2-s2.0-84938418906</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16586,6 +17034,12 @@
           <t>2-s2.0-84938419750</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16809,6 +17263,12 @@
           <t>2-s2.0-84938418062</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17023,6 +17483,12 @@
         <is>
           <t>2-s2.0-84938366954</t>
         </is>
+      </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -17231,6 +17697,12 @@
           <t>2-s2.0-84937968803</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17450,6 +17922,12 @@
           <t>2-s2.0-84937967448</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17673,6 +18151,12 @@
           <t>2-s2.0-84937977951</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17896,6 +18380,12 @@
           <t>2-s2.0-84937970940</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18110,6 +18600,12 @@
         <is>
           <t>2-s2.0-84937967355</t>
         </is>
+      </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -18320,6 +18816,12 @@
           <t>2-s2.0-84937977057</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18527,6 +19029,12 @@
           <t>2-s2.0-84937972438</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18742,6 +19250,12 @@
           <t>2-s2.0-84937977809</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18957,6 +19471,12 @@
           <t>2-s2.0-84937972449</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19180,6 +19700,12 @@
           <t>2-s2.0-84937939954</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19395,6 +19921,12 @@
           <t>2-s2.0-84937969925</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19610,6 +20142,12 @@
           <t>2-s2.0-84937830195</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19825,6 +20363,12 @@
           <t>2-s2.0-84937973549</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20044,6 +20588,12 @@
           <t>2-s2.0-84937908334</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20267,6 +20817,12 @@
           <t>2-s2.0-84937966373</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20478,6 +21034,12 @@
           <t>2-s2.0-84937966778</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20693,6 +21255,12 @@
           <t>2-s2.0-84937970291</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20916,6 +21484,12 @@
           <t>2-s2.0-84937972413</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21139,6 +21713,12 @@
           <t>2-s2.0-85027954032</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21358,6 +21938,12 @@
           <t>2-s2.0-84937779995</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21569,6 +22155,12 @@
           <t>2-s2.0-84937802984</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21780,6 +22372,12 @@
           <t>2-s2.0-84937798776</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21995,6 +22593,12 @@
           <t>2-s2.0-85027954732</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22210,6 +22814,12 @@
           <t>2-s2.0-85027938192</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22425,6 +23035,12 @@
           <t>2-s2.0-85027917861</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22640,6 +23256,12 @@
           <t>2-s2.0-85027955057</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22863,6 +23485,12 @@
           <t>2-s2.0-85028210942</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23074,6 +23702,12 @@
           <t>2-s2.0-85027951987</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23288,6 +23922,12 @@
         <is>
           <t>2-s2.0-85027941374</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -23496,6 +24136,12 @@
           <t>2-s2.0-85027952295</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23710,6 +24356,12 @@
         <is>
           <t>2-s2.0-84937808530</t>
         </is>
+      </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -23918,6 +24570,12 @@
           <t>2-s2.0-85027921748</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24141,6 +24799,12 @@
           <t>2-s2.0-85027948098</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24364,6 +25028,12 @@
           <t>2-s2.0-85027933665</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24579,6 +25249,12 @@
           <t>2-s2.0-85028194758</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24804,6 +25480,12 @@
           <t>2-s2.0-84928780264</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25015,6 +25697,12 @@
           <t>2-s2.0-84939955070</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25234,6 +25922,12 @@
           <t>2-s2.0-84939885352</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25456,6 +26150,12 @@
         <is>
           <t>2-s2.0-84939895278</t>
         </is>
+      </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -25668,6 +26368,12 @@
           <t>2-s2.0-84939876318</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25886,6 +26592,12 @@
         <is>
           <t>2-s2.0-84939952595</t>
         </is>
+      </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -26094,6 +26806,12 @@
           <t>2-s2.0-85028208245</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26309,6 +27027,12 @@
           <t>2-s2.0-85027942245</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26532,6 +27256,12 @@
           <t>2-s2.0-84939983142</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26747,6 +27477,12 @@
           <t>2-s2.0-84939875096</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26966,6 +27702,12 @@
           <t>2-s2.0-85027924361</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27185,6 +27927,12 @@
           <t>2-s2.0-84939881975</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27408,6 +28156,12 @@
           <t>2-s2.0-84928819643</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27623,6 +28377,12 @@
           <t>2-s2.0-84939874281</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27838,6 +28598,12 @@
           <t>2-s2.0-84939874839</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28061,6 +28827,12 @@
           <t>2-s2.0-84939889800</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28288,6 +29060,12 @@
           <t>2-s2.0-84928796004</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28498,6 +29276,12 @@
         <is>
           <t>2-s2.0-84939893454</t>
         </is>
+      </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -28706,6 +29490,12 @@
           <t>2-s2.0-84939958761</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28917,6 +29707,12 @@
           <t>2-s2.0-84939969203</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29132,6 +29928,12 @@
           <t>2-s2.0-84939889194</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29355,6 +30157,12 @@
           <t>2-s2.0-84939894393</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29570,6 +30378,12 @@
           <t>2-s2.0-85027922870</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29780,6 +30594,12 @@
         <is>
           <t>2-s2.0-84939986583</t>
         </is>
+      </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -29988,6 +30808,12 @@
           <t>2-s2.0-84939898119</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30203,6 +31029,12 @@
           <t>2-s2.0-84939946864</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30414,6 +31246,12 @@
           <t>2-s2.0-84939989089</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30639,6 +31477,12 @@
           <t>2-s2.0-84939881265</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30850,6 +31694,12 @@
           <t>2-s2.0-84939897438</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31065,6 +31915,12 @@
           <t>2-s2.0-84939888483</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31284,6 +32140,12 @@
           <t>2-s2.0-84939886023</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31502,6 +32364,12 @@
         <is>
           <t>2-s2.0-84926376487</t>
         </is>
+      </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -31710,6 +32578,12 @@
           <t>2-s2.0-84926347818</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31917,6 +32791,12 @@
           <t>2-s2.0-85027945065</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32132,6 +33012,12 @@
           <t>2-s2.0-84939897862</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32347,6 +33233,12 @@
           <t>2-s2.0-84926388930</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32570,6 +33462,12 @@
           <t>2-s2.0-84939880295</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32781,6 +33679,12 @@
           <t>2-s2.0-84905304247</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32996,6 +33900,12 @@
           <t>2-s2.0-84903872699</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33215,6 +34125,12 @@
           <t>2-s2.0-84905291363</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33438,6 +34354,12 @@
           <t>2-s2.0-84959351601</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33653,6 +34575,12 @@
           <t>2-s2.0-84905557860</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33867,6 +34795,12 @@
         <is>
           <t>2-s2.0-84905289278</t>
         </is>
+      </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -34075,6 +35009,12 @@
           <t>2-s2.0-84902226056</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34298,6 +35238,12 @@
           <t>2-s2.0-84902235025</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34513,6 +35459,12 @@
           <t>2-s2.0-84905315774</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34736,6 +35688,12 @@
           <t>2-s2.0-84938070984</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34951,6 +35909,12 @@
           <t>2-s2.0-84903428352</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35178,6 +36142,12 @@
           <t>2-s2.0-84965118468</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35397,6 +36367,12 @@
           <t>2-s2.0-84897117584</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35620,6 +36596,12 @@
           <t>2-s2.0-84903863162</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35834,6 +36816,12 @@
         <is>
           <t>2-s2.0-84896060776</t>
         </is>
+      </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="165">
@@ -36026,6 +37014,12 @@
           <t>2-s2.0-84996957473</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36265,6 +37259,12 @@
           <t>2-s2.0-84896058985</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36499,6 +37499,12 @@
         <is>
           <t>2-s2.0-84939878872</t>
         </is>
+      </c>
+      <c r="BT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -36723,6 +37729,12 @@
           <t>2-s2.0-84943698744</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36954,6 +37966,12 @@
           <t>2-s2.0-84924342438</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37193,6 +38211,12 @@
           <t>2-s2.0-84924037518</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37424,6 +38448,12 @@
           <t>2-s2.0-84959935755</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37663,6 +38693,12 @@
           <t>2-s2.0-84959935946</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37904,6 +38940,12 @@
           <t>2-s2.0-84924045715</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -38135,6 +39177,12 @@
           <t>2-s2.0-84939873602</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38374,6 +39422,12 @@
           <t>2-s2.0-84924054235</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38604,6 +39658,12 @@
         <is>
           <t>2-s2.0-84893022314</t>
         </is>
+      </c>
+      <c r="BT176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -38828,6 +39888,12 @@
           <t>2-s2.0-84893470050</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -39035,6 +40101,12 @@
           <t>2-s2.0-84890261322</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39246,6 +40318,12 @@
           <t>2-s2.0-84943590075</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39469,6 +40547,12 @@
           <t>2-s2.0-84939889823</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39684,6 +40768,12 @@
           <t>2-s2.0-84950307180</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39899,6 +40989,12 @@
           <t>2-s2.0-84958025648</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -40121,6 +41217,12 @@
         <is>
           <t>2-s2.0-84924024920</t>
         </is>
+      </c>
+      <c r="BT183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -40329,6 +41431,12 @@
           <t>2-s2.0-84939877627</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40552,6 +41660,12 @@
           <t>2-s2.0-84939877970</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40767,6 +41881,12 @@
           <t>2-s2.0-84939888706</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40982,6 +42102,12 @@
           <t>2-s2.0-84897118610</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -41197,6 +42323,12 @@
           <t>2-s2.0-84939872730</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41420,6 +42552,12 @@
           <t>2-s2.0-84939895959</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41643,6 +42781,12 @@
           <t>2-s2.0-84920792853</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41866,6 +43010,12 @@
           <t>2-s2.0-84939882056</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -42077,6 +43227,12 @@
           <t>2-s2.0-84939884573</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -42296,6 +43452,12 @@
           <t>2-s2.0-84925470279</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42507,6 +43669,12 @@
           <t>2-s2.0-84890259497</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42725,6 +43893,12 @@
         <is>
           <t>2-s2.0-84939894361</t>
         </is>
+      </c>
+      <c r="BT195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -42933,6 +44107,12 @@
           <t>2-s2.0-84939888117</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -43156,6 +44336,12 @@
           <t>2-s2.0-84897360796</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43375,6 +44561,12 @@
           <t>2-s2.0-84897363774</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43586,6 +44778,12 @@
           <t>2-s2.0-84896436946</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43801,6 +44999,12 @@
           <t>2-s2.0-84937790203</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -44026,6 +45230,12 @@
           <t>2-s2.0-84897355360</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -44245,6 +45455,12 @@
           <t>2-s2.0-84958052757</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44468,6 +45684,12 @@
           <t>2-s2.0-84939874154</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44683,6 +45905,12 @@
           <t>2-s2.0-84895915875</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44906,6 +46134,12 @@
           <t>2-s2.0-84897363942</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -45121,6 +46355,12 @@
           <t>2-s2.0-84920865891</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -45344,6 +46584,12 @@
           <t>2-s2.0-84939889767</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45559,6 +46805,12 @@
           <t>2-s2.0-84896058783</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45774,6 +47026,12 @@
           <t>2-s2.0-84896551678</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45989,6 +47247,12 @@
           <t>2-s2.0-84896425137</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -46204,6 +47468,12 @@
           <t>2-s2.0-84895775600</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46419,6 +47689,12 @@
           <t>2-s2.0-84908098610</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46641,6 +47917,12 @@
         <is>
           <t>2-s2.0-84895914039</t>
         </is>
+      </c>
+      <c r="BT213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -46849,6 +48131,12 @@
           <t>2-s2.0-84938281300</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -47055,6 +48343,12 @@
         <is>
           <t>2-s2.0-84896433883</t>
         </is>
+      </c>
+      <c r="BT215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -47253,6 +48547,12 @@
           <t>2-s2.0-84939882726</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -47468,6 +48768,12 @@
           <t>2-s2.0-84939886880</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47691,6 +48997,12 @@
           <t>2-s2.0-84927713877</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -47916,6 +49228,12 @@
           <t>2-s2.0-85027919463</t>
         </is>
       </c>
+      <c r="BT219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -48135,6 +49453,12 @@
           <t>2-s2.0-84939877937</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
